--- a/excels/materiales/06Cielos.xlsx
+++ b/excels/materiales/06Cielos.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/excels/materiales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/materiales/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="22720" windowHeight="13460"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="19320" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -54,6 +54,30 @@
   </si>
   <si>
     <t>product_subdepartment_id</t>
+  </si>
+  <si>
+    <t>unidad</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Fibrolit LAM 6mm 1219x2438mm</t>
+  </si>
+  <si>
+    <t>TG Furring Channnel 0,36x3,66mm (12ft)</t>
+  </si>
+  <si>
+    <t>TG Lamina gypsum HY Flex 4x8x1/4 flexible</t>
+  </si>
+  <si>
+    <t>TG Track p/gypsum en 0,70 de 4"x 3,05m 10ft calib 20</t>
+  </si>
+  <si>
+    <t>TG Stud p/gypsum en 0,70 de 4" x 3,05m 10ft calib 20</t>
+  </si>
+  <si>
+    <t>Lamina de estereofon 75mm 1,22 x 2,44 x 3"</t>
   </si>
 </sst>
 </file>
@@ -204,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +406,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -545,9 +575,17 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -646,7 +684,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,7 +719,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -890,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,16 +939,15 @@
     <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="2" customWidth="1"/>
+    <col min="8" max="10" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,10 +963,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -940,6 +977,216 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>6001</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6001</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8238.94</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>6002</v>
+      </c>
+      <c r="B3" s="3">
+        <v>6002</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>756.64</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>6003</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6003</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>6</v>
+      </c>
+      <c r="K4" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>6004</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6004</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2349.56</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>6</v>
+      </c>
+      <c r="K5" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>6005</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6005</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2734.51</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>6</v>
+      </c>
+      <c r="K6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6006</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6006</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8336.2800000000007</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6</v>
+      </c>
+      <c r="K7" s="5">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
